--- a/October'21/27.10.2021/Bank Statement October-2021.xlsx
+++ b/October'21/27.10.2021/Bank Statement October-2021.xlsx
@@ -3735,6 +3735,12 @@
     <xf numFmtId="0" fontId="57" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3751,12 +3757,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4534,48 +4534,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="336" t="s">
+      <c r="A1" s="338" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="336"/>
-      <c r="C1" s="336"/>
-      <c r="D1" s="336"/>
-      <c r="E1" s="336"/>
-      <c r="F1" s="336"/>
-      <c r="G1" s="336"/>
-      <c r="H1" s="336"/>
-      <c r="I1" s="336"/>
-      <c r="J1" s="336"/>
-      <c r="K1" s="336"/>
-      <c r="L1" s="336"/>
-      <c r="M1" s="336"/>
-      <c r="N1" s="336"/>
-      <c r="O1" s="336"/>
-      <c r="P1" s="336"/>
-      <c r="Q1" s="336"/>
-      <c r="R1" s="336"/>
+      <c r="B1" s="338"/>
+      <c r="C1" s="338"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="338"/>
+      <c r="G1" s="338"/>
+      <c r="H1" s="338"/>
+      <c r="I1" s="338"/>
+      <c r="J1" s="338"/>
+      <c r="K1" s="338"/>
+      <c r="L1" s="338"/>
+      <c r="M1" s="338"/>
+      <c r="N1" s="338"/>
+      <c r="O1" s="338"/>
+      <c r="P1" s="338"/>
+      <c r="Q1" s="338"/>
+      <c r="R1" s="338"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="337" t="s">
+      <c r="A2" s="339" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="337"/>
-      <c r="C2" s="337"/>
-      <c r="D2" s="337"/>
-      <c r="E2" s="337"/>
-      <c r="F2" s="337"/>
-      <c r="G2" s="337"/>
-      <c r="H2" s="337"/>
-      <c r="I2" s="337"/>
-      <c r="J2" s="337"/>
-      <c r="K2" s="337"/>
-      <c r="L2" s="337"/>
-      <c r="M2" s="337"/>
-      <c r="N2" s="337"/>
-      <c r="O2" s="337"/>
-      <c r="P2" s="337"/>
-      <c r="Q2" s="337"/>
-      <c r="R2" s="337"/>
+      <c r="B2" s="339"/>
+      <c r="C2" s="339"/>
+      <c r="D2" s="339"/>
+      <c r="E2" s="339"/>
+      <c r="F2" s="339"/>
+      <c r="G2" s="339"/>
+      <c r="H2" s="339"/>
+      <c r="I2" s="339"/>
+      <c r="J2" s="339"/>
+      <c r="K2" s="339"/>
+      <c r="L2" s="339"/>
+      <c r="M2" s="339"/>
+      <c r="N2" s="339"/>
+      <c r="O2" s="339"/>
+      <c r="P2" s="339"/>
+      <c r="Q2" s="339"/>
+      <c r="R2" s="339"/>
     </row>
     <row r="3" spans="1:25" s="68" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="348" t="s">
@@ -4606,34 +4606,34 @@
       <c r="Y3" s="71"/>
     </row>
     <row r="4" spans="1:25" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="338" t="s">
+      <c r="A4" s="340" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="340" t="s">
+      <c r="B4" s="342" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="340" t="s">
+      <c r="C4" s="342" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="342" t="s">
+      <c r="D4" s="336" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="342" t="s">
+      <c r="E4" s="336" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="342" t="s">
+      <c r="F4" s="336" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="342" t="s">
+      <c r="G4" s="336" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="342" t="s">
+      <c r="H4" s="336" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="342" t="s">
+      <c r="I4" s="336" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="342" t="s">
+      <c r="J4" s="336" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="351" t="s">
@@ -4667,16 +4667,16 @@
       <c r="X4" s="70"/>
     </row>
     <row r="5" spans="1:25" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="339"/>
-      <c r="B5" s="341"/>
-      <c r="C5" s="341"/>
-      <c r="D5" s="343"/>
-      <c r="E5" s="343"/>
-      <c r="F5" s="343"/>
-      <c r="G5" s="343"/>
-      <c r="H5" s="343"/>
-      <c r="I5" s="343"/>
-      <c r="J5" s="343"/>
+      <c r="A5" s="341"/>
+      <c r="B5" s="343"/>
+      <c r="C5" s="343"/>
+      <c r="D5" s="337"/>
+      <c r="E5" s="337"/>
+      <c r="F5" s="337"/>
+      <c r="G5" s="337"/>
+      <c r="H5" s="337"/>
+      <c r="I5" s="337"/>
+      <c r="J5" s="337"/>
       <c r="K5" s="352"/>
       <c r="L5" s="345"/>
       <c r="M5" s="354"/>
@@ -7729,6 +7729,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
@@ -7745,10 +7749,6 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9825,8 +9825,8 @@
   </sheetPr>
   <dimension ref="B1:M166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
